--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_6_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_6_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.14900183661077e-16</v>
+        <v>1.154978439141905e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>58.3602833445997</v>
+        <v>60.5171714126482</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[54.414138231284426, 62.306428457914976]</t>
+          <t>[56.36013662065184, 64.67420620464455]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 1.7044476659115801]</t>
+          <t>[1.566079220708426, 1.6918687163476562]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.68094372741747</v>
+        <v>56.17493854105904</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.08507091535095, 56.276816539483995]</t>
+          <t>[53.43450829573093, 58.915368786387155]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.69279279279302</v>
+        <v>17.72592592592615</v>
       </c>
       <c r="X2" t="n">
-        <v>17.45305305305327</v>
+        <v>17.48638638638661</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.93253253253276</v>
+        <v>17.96546546546569</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14900183661077e-16</v>
+        <v>1.154978439141905e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.83954102671311</v>
+        <v>55.51302827476059</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[51.62853187338658, 62.050550180039636]</t>
+          <t>[50.01468705530349, 61.01136949421768]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.452868674633117</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.540921321580579]</t>
+          <t>[1.4025528763774249, 1.603816069400195]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.1387297537628</v>
+        <v>52.10518401442899</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.834182698754525, 58.44327680877107]</t>
+          <t>[48.53789929944419, 55.67246872941378]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.35051051051074</v>
+        <v>18.16696696696719</v>
       </c>
       <c r="X3" t="n">
-        <v>18.01599599599622</v>
+        <v>17.78450450450472</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.68502502502526</v>
+        <v>18.54942942942966</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_6_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_6_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.154978439141905e-16</v>
+        <v>1.167120131011991e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>60.5171714126482</v>
+        <v>57.4476616195676</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[56.36013662065184, 64.67420620464455]</t>
+          <t>[53.34708975915434, 61.548233479980865]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.566079220708426, 1.6918687163476562]</t>
+          <t>[1.566079220708426, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.17493854105904</v>
+        <v>53.26313590204257</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.43450829573093, 58.915368786387155]</t>
+          <t>[50.45260986215361, 56.07366194193153]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.72592592592615</v>
+        <v>17.70756756756779</v>
       </c>
       <c r="X2" t="n">
-        <v>17.48638638638661</v>
+        <v>17.41963963963986</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.96546546546569</v>
+        <v>17.99549549549572</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.154978439141905e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.167120131011991e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4048230462943672</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.51302827476059</v>
+        <v>58.71932192208089</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[50.01468705530349, 61.01136949421768]</t>
+          <t>[53.454521474318256, 63.98412236984353]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.50318447288881</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 1.603816069400195]</t>
+          <t>[1.440289725069194, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.10518401442899</v>
+        <v>54.70989483058275</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.53789929944419, 55.67246872941378]</t>
+          <t>[51.17019271168323, 58.24959694948228]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.16696696696719</v>
+        <v>18.03863863863887</v>
       </c>
       <c r="X3" t="n">
-        <v>17.78450450450472</v>
+        <v>17.65585585585607</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.54942942942966</v>
+        <v>18.42142142142166</v>
       </c>
     </row>
   </sheetData>
